--- a/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Cyprus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB92A78-397A-4CE6-BAE4-601DEAD69B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82386908-5365-4C18-9A54-939B0D53D940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -990,7 +990,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1160,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>6</v>
@@ -1311,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>6</v>
@@ -1461,7 +1461,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>6</v>
@@ -1491,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>6</v>

--- a/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Cyprus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82386908-5365-4C18-9A54-939B0D53D940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2D5965-80BB-4384-9C77-F389CCE8C630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{CD501B07-102D-43AA-9B5C-3BB80503E440}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{CD501B07-102D-43AA-9B5C-3BB80503E440}">
       <text>
         <r>
           <rPr>
@@ -52,12 +52,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Τράπεζα της Ελλάδος
-(Athens mint)</t>
+          <t>Νομισματοκοπείο - ΙΕΤΑ (The National Mint of the Bank of Greece)</t>
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{7582DD39-FF77-43EA-B80D-B007D7BF15C9}">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{7582DD39-FF77-43EA-B80D-B007D7BF15C9}">
       <text>
         <r>
           <rPr>
@@ -73,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{2D79C93A-E2E4-4160-B661-31F44B3B12BA}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{2D79C93A-E2E4-4160-B661-31F44B3B12BA}">
       <text>
         <r>
           <rPr>
@@ -84,12 +83,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Τράπεζα της Ελλάδος
-(Athens mint)</t>
+          <t>Νομισματοκοπείο - ΙΕΤΑ (The National Mint of the Bank of Greece)</t>
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{448A6FB8-4D67-4D8C-A512-33133CBD8016}">
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{448A6FB8-4D67-4D8C-A512-33133CBD8016}">
       <text>
         <r>
           <rPr>
@@ -110,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="42">
   <si>
     <t>Year</t>
   </si>
@@ -124,12 +122,6 @@
     <t>2€</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -221,6 +213,27 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>10 Years of EMU</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Euro Coins and Banknotes</t>
+  </si>
+  <si>
+    <t>European Union flag</t>
+  </si>
+  <si>
+    <t>Erasmus Programme</t>
   </si>
 </sst>
 </file>
@@ -326,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -419,13 +432,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -491,12 +513,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -507,6 +523,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -984,545 +1009,587 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
     <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="12" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="5" width="24.81640625" style="12" customWidth="1"/>
+    <col min="6" max="7" width="12.453125" style="12" customWidth="1"/>
+    <col min="8" max="9" width="3.81640625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="29"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2009</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="9">
+        <v>38</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9">
         <v>1</v>
       </c>
-      <c r="I3" s="10" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="J3" s="10" t="str">
+        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2010</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="10" t="str">
-        <f t="shared" ref="I4:I11" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="10" t="str">
+        <f t="shared" ref="J4:J11" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2011</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="10" t="str">
+        <v>4</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2012</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="9">
+        <v>24</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2013</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="10" t="str">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2014</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="10" t="str">
+        <v>4</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2015</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="9">
         <v>1</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="10" t="str">
-        <f t="shared" ref="I9" si="1">IF(OR(AND(G9&gt;1,G9&lt;&gt;"-"),AND(H9&gt;1,H9&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="10" t="str">
+        <f t="shared" ref="J9" si="1">IF(OR(AND(H9&gt;1,H9&lt;&gt;"-"),AND(I9&gt;1,I9&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2016</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="10" t="str">
+        <v>4</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2017</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="9">
         <v>1</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="10" t="str">
+      <c r="I11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2018</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="10" t="str">
-        <f t="shared" ref="I12:I14" si="2">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
+        <v>4</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="10" t="str">
+        <f t="shared" ref="J12:J14" si="2">IF(OR(AND(H12&gt;1,H12&lt;&gt;"-"),AND(I12&gt;1,I12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2019</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="10" t="str">
+        <v>4</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2020</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="G14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="9">
         <v>1</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="10" t="str">
+      <c r="I14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2021</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="10" t="str">
-        <f t="shared" ref="I15:I16" si="3">IF(OR(AND(G15&gt;1,G15&lt;&gt;"-"),AND(H15&gt;1,H15&lt;&gt;"-")),"Can exchange","")</f>
+        <v>4</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="10" t="str">
+        <f t="shared" ref="J15:J16" si="3">IF(OR(AND(H15&gt;1,H15&lt;&gt;"-"),AND(I15&gt;1,I15&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2022</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="G16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="9">
         <v>1</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="10" t="str">
+      <c r="I16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2023</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="G17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="9">
         <v>1</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="10" t="str">
-        <f t="shared" ref="I17" si="4">IF(OR(AND(G17&gt;1,G17&lt;&gt;"-"),AND(H17&gt;1,H17&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="10" t="str">
+        <f t="shared" ref="J17" si="4">IF(OR(AND(H17&gt;1,H17&lt;&gt;"-"),AND(I17&gt;1,I17&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T21" s="23"/>
+    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="U21" s="23"/>
-    </row>
-    <row r="38" spans="19:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S38" s="23"/>
+      <c r="V21" s="23"/>
+    </row>
+    <row r="38" spans="20:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:H6 G3:G5 G11:H11">
+  <conditionalFormatting sqref="H6:I6 H3:H5 H11:I11">
     <cfRule type="containsText" dxfId="23" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:H6 G3:G5 G11:H11">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:I6 H3:H5 H11:I11">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1534,12 +1601,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="I3">
     <cfRule type="containsText" dxfId="22" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1551,12 +1618,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
+  <conditionalFormatting sqref="I4:I5">
     <cfRule type="containsText" dxfId="21" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I5">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1568,12 +1635,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="H7">
     <cfRule type="containsText" dxfId="20" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1585,12 +1652,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="I7">
     <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1602,12 +1669,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="H8">
     <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1619,12 +1686,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="I8">
     <cfRule type="containsText" dxfId="17" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1636,12 +1703,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:H9">
+  <conditionalFormatting sqref="H9:I9">
     <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:H9">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:I9">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1653,12 +1720,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="H10">
     <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1670,12 +1737,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="I10">
     <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1687,12 +1754,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="H12">
     <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1704,12 +1771,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="I12">
     <cfRule type="containsText" dxfId="12" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1721,12 +1788,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+  <conditionalFormatting sqref="H13">
     <cfRule type="containsText" dxfId="11" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1738,12 +1805,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="I13">
     <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1755,12 +1822,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:H14">
+  <conditionalFormatting sqref="H14:I14">
     <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:H14">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:I14">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1772,12 +1839,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
+  <conditionalFormatting sqref="H15">
     <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1789,12 +1856,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="I15">
     <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1806,12 +1873,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
+  <conditionalFormatting sqref="I16">
     <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1823,12 +1890,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="I17">
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1840,12 +1907,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
+  <conditionalFormatting sqref="H16">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1857,12 +1924,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
+  <conditionalFormatting sqref="H17">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1885,7 +1952,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1897,13 +1964,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1911,10 +1978,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1922,10 +1989,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1933,10 +2000,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1944,10 +2011,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1955,10 +2022,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1966,10 +2033,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Cyprus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2D5965-80BB-4384-9C77-F389CCE8C630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BAF80F-20C0-46E4-B3B0-325D12CF61E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="1110" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
   <si>
     <t>Year</t>
   </si>
@@ -539,7 +539,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -738,9 +754,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1015,7 +1031,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1564,7 +1580,40 @@
         <v>4</v>
       </c>
       <c r="J17" s="10" t="str">
-        <f t="shared" ref="J17" si="4">IF(OR(AND(H17&gt;1,H17&lt;&gt;"-"),AND(I17&gt;1,I17&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="J17:J18" si="4">IF(OR(AND(H17&gt;1,H17&lt;&gt;"-"),AND(I17&gt;1,I17&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="10" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1585,11 +1634,45 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:I6 H3:H5 H11:I11">
+    <cfRule type="containsText" dxfId="25" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:I6 H3:H5 H11:I11">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="24" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I5">
     <cfRule type="containsText" dxfId="23" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:I6 H3:H5 H11:I11">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I5">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1601,12 +1684,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="H7">
     <cfRule type="containsText" dxfId="22" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1618,12 +1701,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I5">
+  <conditionalFormatting sqref="I7">
     <cfRule type="containsText" dxfId="21" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I5">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1635,12 +1718,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H8">
     <cfRule type="containsText" dxfId="20" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1652,12 +1735,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
+  <conditionalFormatting sqref="I8">
     <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1669,46 +1752,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="17" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H9:I9">
+    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:I9">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
     <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:I9">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1720,12 +1803,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="H12">
     <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1737,12 +1820,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+  <conditionalFormatting sqref="I12">
     <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1754,12 +1837,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="H13">
     <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1771,12 +1854,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+  <conditionalFormatting sqref="I13">
     <cfRule type="containsText" dxfId="12" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1788,46 +1871,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="11" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H14:I14">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:I14">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:I14">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1839,12 +1922,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="I16">
     <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1856,29 +1939,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1890,12 +1956,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1907,12 +1973,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
+  <conditionalFormatting sqref="H17">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1924,12 +2007,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Cyprus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BAF80F-20C0-46E4-B3B0-325D12CF61E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9990C4A7-5EEE-49A6-BF1E-E1924279F107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1110" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -218,9 +221,6 @@
     <t>Subtype_1#Series</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol</t>
-  </si>
-  <si>
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Erasmus Programme</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -506,6 +509,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,22 +547,6 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -564,6 +554,22 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -754,9 +760,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1031,54 +1037,54 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="5" width="24.81640625" style="12" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="12" customWidth="1"/>
-    <col min="8" max="9" width="3.81640625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="12" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="12" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" style="12" customWidth="1"/>
+    <col min="8" max="9" width="3.6328125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="12" customWidth="1"/>
     <col min="11" max="11" width="14.26953125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>19</v>
@@ -1102,7 +1108,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>27</v>
@@ -1198,7 +1204,7 @@
         <v>2012</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>24</v>
@@ -1300,7 +1306,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>27</v>
@@ -1528,7 +1534,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>27</v>
@@ -1626,9 +1632,9 @@
       <c r="U38" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="C1:E1"/>
@@ -1991,7 +1997,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2008,7 +2014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Cyprus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9990C4A7-5EEE-49A6-BF1E-E1924279F107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17876CF8-2A6F-4A32-9C0C-9543235AD327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="44">
   <si>
     <t>Year</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>20th Anniversary - Cyprus' accession to the European Union</t>
+  </si>
+  <si>
+    <t>7.000</t>
   </si>
 </sst>
 </file>
@@ -246,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -302,6 +308,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -450,7 +464,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -539,13 +553,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -760,9 +793,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1037,7 +1070,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1594,32 +1627,30 @@
       <c r="A18" s="6">
         <v>2024</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>4</v>
+      <c r="B18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>43</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>4</v>
+      <c r="H18" s="9">
+        <v>0</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J18" si="5">IF(OR(AND(H18&gt;1,H18&lt;&gt;"-"),AND(I18&gt;1,I18&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1640,11 +1671,45 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:I6 H3:H5 H11:I11">
+    <cfRule type="containsText" dxfId="27" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:I6 H3:H5 H11:I11">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="26" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I5">
     <cfRule type="containsText" dxfId="25" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:I6 H3:H5 H11:I11">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I5">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1656,12 +1721,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="H7">
     <cfRule type="containsText" dxfId="24" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1673,12 +1738,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I5">
+  <conditionalFormatting sqref="I7">
     <cfRule type="containsText" dxfId="23" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I5">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1690,12 +1755,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H8">
     <cfRule type="containsText" dxfId="22" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1707,12 +1772,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
+  <conditionalFormatting sqref="I8">
     <cfRule type="containsText" dxfId="21" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1724,46 +1789,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="20" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H9:I9">
+    <cfRule type="containsText" dxfId="20" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:I9">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
     <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:I9">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1775,12 +1840,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="H12">
     <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1792,12 +1857,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+  <conditionalFormatting sqref="I12">
     <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1809,12 +1874,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="H13">
     <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1826,12 +1891,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+  <conditionalFormatting sqref="I13">
     <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1843,46 +1908,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="12" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H14:I14">
+    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:I14">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:I14">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1894,12 +1959,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="I16">
     <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1911,29 +1976,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1945,12 +1993,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1962,30 +2010,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1997,28 +2045,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2041,7 +2072,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
